--- a/template_task (2).xlsx
+++ b/template_task (2).xlsx
@@ -79,7 +79,7 @@
     <t xml:space="preserve">      Login popup</t>
   </si>
   <si>
-    <t>footer,admin</t>
+    <t>footer,admin,respones (footer ,admin)</t>
   </si>
   <si>
     <t>Dev2</t>
@@ -93,11 +93,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="mm/dd"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="mm/dd"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -139,6 +139,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -153,17 +160,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,9 +189,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,14 +252,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -215,15 +267,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,51 +283,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -328,85 +328,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,97 +508,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,26 +625,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -664,17 +664,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -713,160 +722,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -881,13 +881,13 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="2" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -913,7 +913,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1211,7 +1211,7 @@
   <dimension ref="A1:J986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -1264,7 +1264,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="6">
-        <v>44175</v>
+        <v>45122</v>
       </c>
       <c r="C2" s="7">
         <v>45136</v>
@@ -1275,7 +1275,9 @@
       <c r="E2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="6">
+        <v>45136</v>
+      </c>
       <c r="G2" s="6">
         <v>45136</v>
       </c>
@@ -1430,7 +1432,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="6">
-        <v>44175</v>
+        <v>45122</v>
       </c>
       <c r="C8" s="6">
         <v>45136</v>
@@ -1441,7 +1443,9 @@
       <c r="E8" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6">
+        <v>45136</v>
+      </c>
       <c r="G8" s="6">
         <v>45136</v>
       </c>
